--- a/docs/StructureDefinition-VAProgressNoteDictation.xlsx
+++ b/docs/StructureDefinition-VAProgressNoteDictation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="293">
   <si>
     <t>Path</t>
   </si>
@@ -323,253 +323,250 @@
     <t>Provenance.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Provenance.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Target Reference(s) (usually version specific)</t>
+  </si>
+  <si>
+    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
+  </si>
+  <si>
+    <t>Target references are usually version specific, but may not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource may not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
+  </si>
+  <si>
+    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
+  </si>
+  <si>
+    <t>Entity Created/Updated</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.reference</t>
+  </si>
+  <si>
+    <t>Provenance.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>When the activity occurred</t>
+  </si>
+  <si>
+    <t>The period during which the activity occurred.</t>
+  </si>
+  <si>
+    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
+  </si>
+  <si>
+    <t>./effectiveTime[type=IVL_TS]</t>
+  </si>
+  <si>
+    <t>Activity.startTime &amp; Activity.endTime</t>
+  </si>
+  <si>
+    <t>when.done</t>
+  </si>
+  <si>
+    <t>Provenance.recorded</t>
+  </si>
+  <si>
+    <t>DICTATION DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the activity was recorded / updated</t>
+  </si>
+  <si>
+    <t>This is the date (and time) on which the document was dictated by its  author.  In the event that a document originates by dictation, we recommend  that the REFERENCE DATE for the document be defaulted to dictation date, as  the author will be able to identify the document by the date on which s/he  dictated it.</t>
+  </si>
+  <si>
+    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
+  </si>
+  <si>
+    <t>TIU DOCUMENT @DICTATION DATE 8925-1307</t>
+  </si>
+  <si>
+    <t>unique(./participation[isNormalParticipation() and typeCode=AUT]/time[type=TS])</t>
+  </si>
+  <si>
+    <t>Activity.when</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>AuditEvent.recorded</t>
+  </si>
+  <si>
+    <t>Provenance.policy</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
+  </si>
+  <si>
+    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
+  </si>
+  <si>
+    <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.policy</t>
+  </si>
+  <si>
+    <t>Provenance.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant.</t>
+  </si>
+  <si>
+    <t>unique(./participation[isNormalParticipation() and typeCode=LOC]/role[isNormalRole() and subsumes(SDLOC, classCode)]/player[isNormalEntity and classCode="LOC" and determinerCode="INST"]</t>
+  </si>
+  <si>
+    <t>Activity.location</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.location</t>
+  </si>
+  <si>
+    <t>Provenance.reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Reason the activity is occurring</t>
+  </si>
+  <si>
+    <t>The reason that the activity was taking place.</t>
+  </si>
+  <si>
+    <t>The reason the activity took place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v3-PurposeOfUse</t>
+  </si>
+  <si>
+    <t>unique(./reasonCode)</t>
+  </si>
+  <si>
+    <t>Activity.Activity</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>AuditEvent.purposeOfEvent</t>
+  </si>
+  <si>
+    <t>Provenance.activity</t>
+  </si>
+  <si>
+    <t>Activity that occurred</t>
+  </si>
+  <si>
+    <t>An activity is something that occurs over a period of time and acts upon or with entities; it may include consuming, processing, transforming, modifying, relocating, using, or generating entities.</t>
+  </si>
+  <si>
+    <t>The activity that took place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
+  </si>
+  <si>
+    <t>Act.code</t>
+  </si>
+  <si>
+    <t>Provenance.activity.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Provenance.activity.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Provenance.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Provenance.target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Target Reference(s) (usually version specific)</t>
-  </si>
-  <si>
-    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
-  </si>
-  <si>
-    <t>Target references are usually version specific, but may not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource may not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
-  </si>
-  <si>
-    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
-  </si>
-  <si>
-    <t>Entity Created/Updated</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.reference</t>
-  </si>
-  <si>
-    <t>Provenance.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>When the activity occurred</t>
-  </si>
-  <si>
-    <t>The period during which the activity occurred.</t>
-  </si>
-  <si>
-    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
-  </si>
-  <si>
-    <t>./effectiveTime[type=IVL_TS]</t>
-  </si>
-  <si>
-    <t>Activity.startTime &amp; Activity.endTime</t>
-  </si>
-  <si>
-    <t>when.done</t>
-  </si>
-  <si>
-    <t>Provenance.recorded</t>
-  </si>
-  <si>
-    <t>DICTATION DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the activity was recorded / updated</t>
-  </si>
-  <si>
-    <t>This is the date (and time) on which the document was dictated by its  author.  In the event that a document originates by dictation, we recommend  that the REFERENCE DATE for the document be defaulted to dictation date, as  the author will be able to identify the document by the date on which s/he  dictated it.</t>
-  </si>
-  <si>
-    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
-  </si>
-  <si>
-    <t>TIU DOCUMENT @DICTATION DATE 8925-1307</t>
-  </si>
-  <si>
-    <t>unique(./participation[isNormalParticipation() and typeCode=AUT]/time[type=TS])</t>
-  </si>
-  <si>
-    <t>Activity.when</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>AuditEvent.recorded</t>
-  </si>
-  <si>
-    <t>Provenance.policy</t>
-  </si>
-  <si>
-    <t>Policy or plan the activity was defined by</t>
-  </si>
-  <si>
-    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
-  </si>
-  <si>
-    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
-  </si>
-  <si>
-    <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.policy</t>
-  </si>
-  <si>
-    <t>Provenance.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Where the activity occurred, if relevant</t>
-  </si>
-  <si>
-    <t>Where the activity occurred, if relevant.</t>
-  </si>
-  <si>
-    <t>unique(./participation[isNormalParticipation() and typeCode=LOC]/role[isNormalRole() and subsumes(SDLOC, classCode)]/player[isNormalEntity and classCode="LOC" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>Activity.location</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.location</t>
-  </si>
-  <si>
-    <t>Provenance.reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Reason the activity is occurring</t>
-  </si>
-  <si>
-    <t>The reason that the activity was taking place.</t>
-  </si>
-  <si>
-    <t>The reason the activity took place.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v3-PurposeOfUse</t>
-  </si>
-  <si>
-    <t>unique(./reasonCode)</t>
-  </si>
-  <si>
-    <t>Activity.Activity</t>
-  </si>
-  <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>AuditEvent.purposeOfEvent</t>
-  </si>
-  <si>
-    <t>Provenance.activity</t>
-  </si>
-  <si>
-    <t>Activity that occurred</t>
-  </si>
-  <si>
-    <t>An activity is something that occurs over a period of time and acts upon or with entities; it may include consuming, processing, transforming, modifying, relocating, using, or generating entities.</t>
-  </si>
-  <si>
-    <t>The activity that took place.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
-  </si>
-  <si>
-    <t>Act.code</t>
-  </si>
-  <si>
-    <t>Provenance.activity.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Provenance.activity.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -2049,7 +2046,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2068,15 +2065,17 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>44</v>
@@ -2113,14 +2112,16 @@
         <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>103</v>
@@ -2141,7 +2142,7 @@
         <v>44</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>44</v>
@@ -2159,7 +2160,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2178,16 +2179,16 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2237,7 +2238,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2269,7 +2270,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2292,16 +2293,16 @@
         <v>54</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2351,7 +2352,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>53</v>
@@ -2369,21 +2370,21 @@
         <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2406,16 +2407,16 @@
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2465,7 +2466,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2483,13 +2484,13 @@
         <v>44</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>44</v>
@@ -2497,14 +2498,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>53</v>
@@ -2522,16 +2523,16 @@
         <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2581,7 +2582,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>53</v>
@@ -2596,24 +2597,24 @@
         <v>44</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2639,13 +2640,13 @@
         <v>66</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2695,7 +2696,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2713,7 +2714,7 @@
         <v>44</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>44</v>
@@ -2722,12 +2723,12 @@
         <v>44</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2750,13 +2751,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2807,7 +2808,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2825,21 +2826,21 @@
         <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2862,13 +2863,13 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2898,10 +2899,10 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -2919,7 +2920,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -2937,21 +2938,21 @@
         <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2974,13 +2975,13 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3010,10 +3011,10 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
@@ -3031,7 +3032,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3049,21 +3050,21 @@
         <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3086,13 +3087,13 @@
         <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3143,7 +3144,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3161,7 +3162,7 @@
         <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>44</v>
@@ -3175,11 +3176,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3198,16 +3199,16 @@
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3245,19 +3246,19 @@
         <v>44</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="AB19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3275,7 +3276,7 @@
         <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>44</v>
@@ -3289,7 +3290,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3315,16 +3316,16 @@
         <v>66</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -3373,7 +3374,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3391,7 +3392,7 @@
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
@@ -3405,7 +3406,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3428,16 +3429,16 @@
         <v>54</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3487,7 +3488,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3505,7 +3506,7 @@
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>44</v>
@@ -3519,7 +3520,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3545,63 +3546,63 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3619,7 +3620,7 @@
         <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>44</v>
@@ -3633,7 +3634,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3656,17 +3657,17 @@
         <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -3715,7 +3716,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3733,7 +3734,7 @@
         <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>44</v>
@@ -3747,7 +3748,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3770,19 +3771,19 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -3831,7 +3832,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3849,7 +3850,7 @@
         <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
@@ -3863,7 +3864,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3886,19 +3887,19 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -3947,7 +3948,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>53</v>
@@ -3959,27 +3960,27 @@
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4002,13 +4003,13 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4059,7 +4060,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4077,7 +4078,7 @@
         <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>44</v>
@@ -4091,11 +4092,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4114,16 +4115,16 @@
         <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4173,7 +4174,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4191,7 +4192,7 @@
         <v>44</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
@@ -4205,11 +4206,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4228,16 +4229,16 @@
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4287,7 +4288,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4319,7 +4320,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4342,16 +4343,16 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4380,11 +4381,11 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4401,7 +4402,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4419,21 +4420,21 @@
         <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4456,13 +4457,13 @@
         <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4513,7 +4514,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>53</v>
@@ -4531,13 +4532,13 @@
         <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4545,7 +4546,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4568,13 +4569,13 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4625,7 +4626,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4643,7 +4644,7 @@
         <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
@@ -4657,7 +4658,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4680,13 +4681,13 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4713,14 +4714,14 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>44</v>
       </c>
@@ -4737,7 +4738,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4755,10 +4756,10 @@
         <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
@@ -4769,7 +4770,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4792,16 +4793,16 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4851,7 +4852,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4863,27 +4864,27 @@
         <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4906,13 +4907,13 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4963,7 +4964,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -4981,7 +4982,7 @@
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
@@ -4995,11 +4996,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5018,16 +5019,16 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5077,7 +5078,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5095,7 +5096,7 @@
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
@@ -5109,11 +5110,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5132,16 +5133,16 @@
         <v>54</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5191,7 +5192,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5223,7 +5224,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5249,10 +5250,10 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5279,14 +5280,14 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="X37" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="X37" t="s" s="2">
+      <c r="Y37" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
       </c>
@@ -5303,7 +5304,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>53</v>
@@ -5321,21 +5322,21 @@
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>276</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5358,16 +5359,16 @@
         <v>54</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5417,7 +5418,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>53</v>
@@ -5435,21 +5436,21 @@
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5475,13 +5476,13 @@
         <v>44</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5531,7 +5532,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5549,7 +5550,7 @@
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>44</v>
@@ -5563,7 +5564,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5586,13 +5587,13 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5643,7 +5644,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5661,7 +5662,7 @@
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>

--- a/docs/StructureDefinition-VAProgressNoteDictation.xlsx
+++ b/docs/StructureDefinition-VAProgressNoteDictation.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$41</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="301">
   <si>
     <t>Path</t>
   </si>
@@ -587,6 +587,9 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/v3/DocumentCompletion</t>
+  </si>
+  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -763,23 +766,46 @@
     <t>Provenance.agent.who[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Who participated</t>
+  </si>
+  <si>
+    <t>The individual, device or organization that participated in the event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>who.actor</t>
+  </si>
+  <si>
+    <t>whoReference</t>
+  </si>
+  <si>
+    <t>AUTHOR/DICTATOR</t>
+  </si>
+  <si>
+    <t>This is the person who composed or dictated the document.</t>
+  </si>
+  <si>
+    <t>TIU DOCUMENT @AUTHOR/DICTATOR 8925-1202</t>
+  </si>
+  <si>
+    <t>Provenance.agent.onBehalfOf[x]</t>
+  </si>
+  <si>
     <t>uri
 Reference(Practitioner|RelatedPerson|Patient|Device|Organization)</t>
-  </si>
-  <si>
-    <t>Who participated</t>
-  </si>
-  <si>
-    <t>The individual, device or organization that participated in the event.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>who.actor</t>
-  </si>
-  <si>
-    <t>Provenance.agent.onBehalfOf[x]</t>
   </si>
   <si>
     <t>Who the agent is representing</t>
@@ -1071,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1081,9 +1107,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="34.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.1796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="16.65234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="18.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
@@ -1115,7 +1141,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="43.9375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="46.19921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="219.3046875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="35.390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="24.79296875" customWidth="true" bestFit="true"/>
@@ -3288,7 +3314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>178</v>
       </c>
@@ -3304,7 +3330,7 @@
         <v>53</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>44</v>
@@ -3332,7 +3358,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>44</v>
@@ -3374,7 +3400,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3392,7 +3418,7 @@
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
@@ -3406,7 +3432,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3432,13 +3458,13 @@
         <v>167</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3488,7 +3514,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3506,7 +3532,7 @@
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>44</v>
@@ -3520,7 +3546,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3546,21 +3572,21 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>44</v>
@@ -3602,7 +3628,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3620,7 +3646,7 @@
         <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>44</v>
@@ -3634,7 +3660,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3660,14 +3686,14 @@
         <v>167</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -3716,7 +3742,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3734,7 +3760,7 @@
         <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>44</v>
@@ -3748,7 +3774,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3771,19 +3797,19 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -3832,7 +3858,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3850,7 +3876,7 @@
         <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
@@ -3864,7 +3890,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3887,19 +3913,19 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -3948,7 +3974,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>53</v>
@@ -3960,27 +3986,27 @@
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4092,7 +4118,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4206,11 +4232,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4235,7 +4261,7 @@
         <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>102</v>
@@ -4288,7 +4314,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4320,7 +4346,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4343,16 +4369,16 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4381,10 +4407,10 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -4402,7 +4428,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4420,21 +4446,21 @@
         <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4457,13 +4483,13 @@
         <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4502,19 +4528,17 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>53</v>
@@ -4532,50 +4556,54 @@
         <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="E31" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4626,10 +4654,10 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>53</v>
@@ -4641,16 +4669,16 @@
         <v>44</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -4658,7 +4686,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4681,13 +4709,13 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4714,32 +4742,32 @@
         <v>44</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="X32" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4756,10 +4784,10 @@
         <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
@@ -4781,7 +4809,7 @@
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>44</v>
@@ -4793,7 +4821,7 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>258</v>
@@ -4801,9 +4829,7 @@
       <c r="L33" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>260</v>
-      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -4828,13 +4854,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -4858,33 +4884,33 @@
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>263</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4895,7 +4921,7 @@
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>44</v>
@@ -4907,15 +4933,17 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -4964,50 +4992,50 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>44</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>44</v>
@@ -5019,17 +5047,15 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5078,13 +5104,13 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
@@ -5110,11 +5136,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5127,19 +5153,19 @@
         <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>102</v>
@@ -5192,7 +5218,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5210,7 +5236,7 @@
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
@@ -5224,38 +5250,40 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5280,13 +5308,13 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>271</v>
+        <v>44</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -5304,13 +5332,13 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
@@ -5322,21 +5350,21 @@
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>273</v>
+        <v>96</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>274</v>
+        <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>275</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5359,17 +5387,15 @@
         <v>54</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>280</v>
-      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5394,13 +5420,13 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>44</v>
@@ -5418,7 +5444,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>53</v>
@@ -5445,12 +5471,12 @@
         <v>44</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>116</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5458,10 +5484,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>44</v>
@@ -5470,19 +5496,19 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5532,13 +5558,13 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>44</v>
@@ -5550,21 +5576,21 @@
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5587,15 +5613,17 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -5644,7 +5672,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5662,7 +5690,7 @@
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
@@ -5671,11 +5699,123 @@
         <v>44</v>
       </c>
       <c r="AN40" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN40">
+  <autoFilter ref="A1:AN41">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5685,7 +5825,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI39">
+  <conditionalFormatting sqref="A2:AI40">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
